--- a/exec/enter_vpn_windows/test_case/login/login_page.xlsx
+++ b/exec/enter_vpn_windows/test_case/login/login_page.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\office\SymlexVPNTestCases\apps\features\backlog\desktop\windows\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\office\SymlexVPNTestCases\exec\enter_vpn_windows\test_case\login\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B387860-4B2E-42E1-9C20-795D1980A66E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C508F6C3-66B3-48B8-8F92-4212477F35F1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="136">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -532,6 +532,26 @@
   <si>
     <t>check login page after entering email address with trailing period in the username field</t>
   </si>
+  <si>
+    <t>check after logout and again login ,app redirects to 
+home page or not</t>
+  </si>
+  <si>
+    <t>1. goto the app store
+2. search and install the app
+3. open the app from the device home screen
+4.  login with credentials
+5. goto any feature module of the app
+6. logout
+7. check after logout and again login ,app redirects to 
+home page or not</t>
+  </si>
+  <si>
+    <t>should redirect to home page after login</t>
+  </si>
+  <si>
+    <t>SYM-WIN-LOG-031</t>
+  </si>
 </sst>
 </file>
 
@@ -796,6 +816,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -813,12 +839,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1648,9 +1668,9 @@
   </sheetPr>
   <dimension ref="A1:Z990"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B34" sqref="B34:E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1666,15 +1686,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="31"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -1696,13 +1716,13 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="32"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="34"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -2374,7 +2394,7 @@
       <c r="B19" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="27" t="s">
         <v>86</v>
       </c>
       <c r="D19" s="12" t="s">
@@ -2414,7 +2434,7 @@
       <c r="B20" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="33" t="s">
+      <c r="C20" s="27" t="s">
         <v>90</v>
       </c>
       <c r="D20" s="12" t="s">
@@ -2454,7 +2474,7 @@
       <c r="B21" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="27" t="s">
         <v>93</v>
       </c>
       <c r="D21" s="12" t="s">
@@ -2534,7 +2554,7 @@
       <c r="B23" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="33" t="s">
+      <c r="C23" s="27" t="s">
         <v>96</v>
       </c>
       <c r="D23" s="12" t="s">
@@ -2574,7 +2594,7 @@
       <c r="B24" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="33" t="s">
+      <c r="C24" s="27" t="s">
         <v>99</v>
       </c>
       <c r="D24" s="12" t="s">
@@ -2614,7 +2634,7 @@
       <c r="B25" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="34" t="s">
+      <c r="C25" s="28" t="s">
         <v>101</v>
       </c>
       <c r="D25" s="12" t="s">
@@ -2654,7 +2674,7 @@
       <c r="B26" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="34" t="s">
+      <c r="C26" s="28" t="s">
         <v>105</v>
       </c>
       <c r="D26" s="12" t="s">
@@ -2967,12 +2987,22 @@
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
     </row>
-    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="13"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="23"/>
+    <row r="34" spans="1:26" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>134</v>
+      </c>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
       <c r="H34" s="1"/>
